--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_05-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_05-01.xlsx
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  You left Amiya to die back there in the middle of so many enemies. What kind of "position" are you talking about?
+    <t xml:space="preserve">[name="Blaze"]  You left Amiya to die back there in the middle of so many enemies. What kind of 'position' are you talking about?
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_05-01.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_05-01.xlsx
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   4:45 AM \ Clear
+    <t xml:space="preserve">[name=""]   4:45 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   5:00 AM \ Clear
+    <t xml:space="preserve">[name=""]   5:00 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  Only two days?! That's not enough time! I can’t—
+    <t xml:space="preserve">[name="Swire"]  Only two days?! That's not enough time! I can't—
 </t>
   </si>
   <si>
